--- a/設計書/01_基本設計（外部設計）/04_データベース設計/ビュー設計.xlsx
+++ b/設計書/01_基本設計（外部設計）/04_データベース設計/ビュー設計.xlsx
@@ -2140,6 +2140,72 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>347383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>212912</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781735" y="2622177"/>
+          <a:ext cx="9569823" cy="3496235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
+            <a:t>見直し中</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
@@ -2460,7 +2526,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4:AL4"/>
-      <selection pane="bottomLeft" sqref="A1:M2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4142,6 +4208,7 @@
     <oddHeader>&amp;R&amp;P/&amp;N</oddHeader>
     <oddFooter>&amp;RAll Rights Reserved, Copyright © ○○○○○株式会社 2016</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7285,11 +7352,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AS1:AW1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:M3"/>
     <mergeCell ref="N3:R3"/>
     <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="A1:M2"/>
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="S2:AF2"/>
@@ -7297,11 +7364,11 @@
     <mergeCell ref="AM2:AR3"/>
     <mergeCell ref="AS2:AW3"/>
     <mergeCell ref="AX2:AZ3"/>
-    <mergeCell ref="A1:M2"/>
     <mergeCell ref="N1:R1"/>
     <mergeCell ref="S1:AF1"/>
     <mergeCell ref="AG1:AL1"/>
     <mergeCell ref="AM1:AR1"/>
+    <mergeCell ref="AS1:AW1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -13247,7 +13314,7 @@
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4:AL4"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="AP13" sqref="AP13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
